--- a/apps/load_data/2021/12/PLMOVMAE.xlsx
+++ b/apps/load_data/2021/12/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2021\HHY1221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\HHY1221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027405B5-19D8-411B-AC69-F3FA21C5B1D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8297F552-5D1F-4BF5-B6CB-D1EF116BF9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$274</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$270</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11864" uniqueCount="3489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11844" uniqueCount="3486">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7360,9 +7361,6 @@
     <t>0070A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8668,9 +8666,6 @@
     <t>0004A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8987,9 +8982,6 @@
   </si>
   <si>
     <t>0132A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -11338,8 +11330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="H279" sqref="H279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD239" sqref="AC172:AD239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43590,12 +43582,7 @@
       <c r="AB172" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43648,16 +43635,16 @@
         <v>21</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="BM172" s="1" t="s">
         <v>118</v>
@@ -43672,13 +43659,13 @@
         <v>168</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BS172" s="3">
         <v>36225</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>122</v>
@@ -43699,19 +43686,19 @@
         <v>112</v>
       </c>
       <c r="CC172" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CD172" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="CD172" s="1" t="s">
+      <c r="CE172" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CG172" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CG172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>130</v>
@@ -43749,19 +43736,19 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="Q173" s="3">
         <v>27241</v>
@@ -43790,12 +43777,7 @@
       <c r="AB173" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43842,7 +43824,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BB173" s="1">
         <v>12</v>
@@ -43851,13 +43833,13 @@
         <v>21</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>1795</v>
@@ -43872,13 +43854,13 @@
         <v>102</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BS173" s="3">
         <v>36949</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43902,16 +43884,16 @@
         <v>112</v>
       </c>
       <c r="CC173" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="CD173" s="1" t="s">
         <v>2133</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CG173" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="CG173" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="CH173" s="1" t="s">
         <v>1800</v>
@@ -43952,19 +43934,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="Q174" s="3">
         <v>25223</v>
@@ -43993,12 +43975,7 @@
       <c r="AB174" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -44045,7 +44022,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB174" s="1">
         <v>12</v>
@@ -44054,16 +44031,16 @@
         <v>21</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -44078,13 +44055,13 @@
         <v>168</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BS174" s="3">
         <v>36825</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -44108,19 +44085,19 @@
         <v>112</v>
       </c>
       <c r="CC174" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="CD174" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CD174" s="1" t="s">
+      <c r="CE174" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CG174" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="CG174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -44158,19 +44135,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="Q175" s="3">
         <v>27018</v>
@@ -44196,12 +44173,7 @@
       <c r="AA175" s="1">
         <v>0</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -44251,7 +44223,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BB175" s="1">
         <v>12</v>
@@ -44260,13 +44232,13 @@
         <v>21</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>988</v>
@@ -44278,7 +44250,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44296,16 +44268,16 @@
         <v>112</v>
       </c>
       <c r="CC175" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="CD175" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CG175" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>994</v>
@@ -44346,19 +44318,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="Q176" s="3">
         <v>29037</v>
@@ -44387,12 +44359,7 @@
       <c r="AB176" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44442,7 +44409,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BB176" s="1">
         <v>12</v>
@@ -44451,13 +44418,13 @@
         <v>21</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>888</v>
@@ -44469,7 +44436,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44490,13 +44457,13 @@
         <v>714</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>893</v>
@@ -44537,19 +44504,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="Q177" s="3">
         <v>26647</v>
@@ -44575,12 +44542,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44630,7 +44592,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BB177" s="1">
         <v>12</v>
@@ -44639,16 +44601,16 @@
         <v>21</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>118</v>
@@ -44657,7 +44619,7 @@
         <v>106</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44675,19 +44637,19 @@
         <v>112</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="CD177" s="1" t="s">
-        <v>2514</v>
-      </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CG177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>130</v>
@@ -44725,19 +44687,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="Q178" s="3">
         <v>25405</v>
@@ -44769,12 +44731,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44821,7 +44778,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BB178" s="1">
         <v>12</v>
@@ -44830,13 +44787,13 @@
         <v>21</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>377</v>
@@ -44851,13 +44808,13 @@
         <v>119</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BS178" s="3">
         <v>35243</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44875,16 +44832,16 @@
         <v>112</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2530</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>383</v>
@@ -44925,19 +44882,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2532</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2533</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="Q179" s="3">
         <v>28845</v>
@@ -44963,12 +44920,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -45018,7 +44970,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BB179" s="1">
         <v>12</v>
@@ -45027,13 +44979,13 @@
         <v>21</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>1002</v>
@@ -45045,7 +44997,7 @@
         <v>106</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -45063,16 +45015,16 @@
         <v>112</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>1007</v>
@@ -45113,19 +45065,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="Q180" s="3">
         <v>21425</v>
@@ -45151,12 +45103,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -45206,7 +45153,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BB180" s="1">
         <v>12</v>
@@ -45215,13 +45162,13 @@
         <v>21</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>782</v>
@@ -45236,7 +45183,7 @@
         <v>168</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45254,16 +45201,16 @@
         <v>112</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>788</v>
@@ -45280,13 +45227,13 @@
         <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>112</v>
@@ -45298,25 +45245,25 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="Q181" s="3">
         <v>23286</v>
@@ -45345,12 +45292,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -45400,7 +45342,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB181" s="1">
         <v>12</v>
@@ -45409,13 +45351,13 @@
         <v>21</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45424,7 +45366,7 @@
         <v>106</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45445,16 +45387,16 @@
         <v>112</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>130</v>
@@ -45495,19 +45437,19 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="Q182" s="3">
         <v>26907</v>
@@ -45533,12 +45475,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2445</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>107</v>
       </c>
@@ -45585,7 +45522,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BB182" s="1">
         <v>12</v>
@@ -45594,16 +45531,16 @@
         <v>21</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45615,13 +45552,13 @@
         <v>119</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BS182" s="3">
         <v>35950</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45639,19 +45576,19 @@
         <v>112</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>1934</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>130</v>
@@ -45689,19 +45626,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="Q183" s="3">
         <v>28642</v>
@@ -45779,7 +45716,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BB183" s="1">
         <v>12</v>
@@ -45788,13 +45725,13 @@
         <v>21</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>888</v>
@@ -45809,7 +45746,7 @@
         <v>168</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45827,16 +45764,16 @@
         <v>112</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>439</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>893</v>
@@ -45877,19 +45814,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="Q184" s="3">
         <v>28239</v>
@@ -45961,7 +45898,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BB184" s="1">
         <v>12</v>
@@ -45970,13 +45907,13 @@
         <v>21</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1980</v>
@@ -45991,13 +45928,13 @@
         <v>240</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BS184" s="3">
         <v>36099</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -46015,16 +45952,16 @@
         <v>112</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1986</v>
@@ -46065,19 +46002,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="Q185" s="3">
         <v>25589</v>
@@ -46149,7 +46086,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BB185" s="1">
         <v>12</v>
@@ -46158,16 +46095,16 @@
         <v>21</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>118</v>
@@ -46179,13 +46116,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BS185" s="3">
         <v>37735</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -46203,19 +46140,19 @@
         <v>112</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -46253,19 +46190,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="Q186" s="3">
         <v>29170</v>
@@ -46340,7 +46277,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BB186" s="1">
         <v>12</v>
@@ -46349,13 +46286,13 @@
         <v>21</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -46364,7 +46301,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46382,16 +46319,16 @@
         <v>112</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>924</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>130</v>
@@ -46414,7 +46351,7 @@
         <v>90</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>112</v>
@@ -46432,19 +46369,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="Q187" s="3">
         <v>27250</v>
@@ -46477,7 +46414,7 @@
         <v>107</v>
       </c>
       <c r="AG187" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="AH187" s="1" t="s">
         <v>2049</v>
@@ -46522,7 +46459,7 @@
         <v>112</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BB187" s="1">
         <v>12</v>
@@ -46531,13 +46468,13 @@
         <v>21</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46546,7 +46483,7 @@
         <v>106</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46555,7 +46492,7 @@
         <v>0</v>
       </c>
       <c r="BZ187" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="CA187" s="1" t="s">
         <v>124</v>
@@ -46567,13 +46504,13 @@
         <v>1709</v>
       </c>
       <c r="CD187" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="CE187" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>130</v>
@@ -46614,19 +46551,19 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="Q188" s="3">
         <v>27999</v>
@@ -46701,7 +46638,7 @@
         <v>112</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BB188" s="1">
         <v>12</v>
@@ -46710,16 +46647,16 @@
         <v>21</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46731,13 +46668,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BS188" s="3">
         <v>43602</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46761,13 +46698,13 @@
         <v>1020</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46805,19 +46742,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Q189" s="3">
         <v>29305</v>
@@ -46892,7 +46829,7 @@
         <v>112</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BB189" s="1">
         <v>12</v>
@@ -46901,16 +46838,16 @@
         <v>21</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BI189" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46919,7 +46856,7 @@
         <v>106</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46937,19 +46874,19 @@
         <v>112</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="CD189" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="CD189" s="1" t="s">
+      <c r="CE189" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CG189" s="1" t="s">
-        <v>2673</v>
-      </c>
       <c r="CH189" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>130</v>
@@ -46987,19 +46924,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q190" s="3">
         <v>23125</v>
@@ -47035,7 +46972,7 @@
         <v>42247</v>
       </c>
       <c r="AD190" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="AF190" s="1" t="s">
         <v>107</v>
@@ -47089,16 +47026,16 @@
         <v>21</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -47110,13 +47047,13 @@
         <v>240</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BS190" s="3">
         <v>36580</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47137,7 +47074,7 @@
         <v>112</v>
       </c>
       <c r="CC190" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="CD190" s="1" t="s">
         <v>311</v>
@@ -47146,10 +47083,10 @@
         <v>1740</v>
       </c>
       <c r="CG190" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -47187,19 +47124,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="Q191" s="3">
         <v>30023</v>
@@ -47277,13 +47214,13 @@
         <v>21</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1205</v>
@@ -47298,13 +47235,13 @@
         <v>119</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BS191" s="3">
         <v>37747</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47328,10 +47265,10 @@
         <v>701</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1211</v>
@@ -47372,19 +47309,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="Q192" s="3">
         <v>26205</v>
@@ -47465,13 +47402,13 @@
         <v>21</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47480,7 +47417,7 @@
         <v>106</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47498,16 +47435,16 @@
         <v>112</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>130</v>
@@ -47548,19 +47485,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="Q193" s="3">
         <v>31662</v>
@@ -47644,16 +47581,16 @@
         <v>21</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BI193" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -47665,7 +47602,7 @@
         <v>168</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47683,19 +47620,19 @@
         <v>112</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="CG193" s="1" t="s">
-        <v>2718</v>
-      </c>
       <c r="CH193" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -47733,19 +47670,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="Q194" s="3">
         <v>29117</v>
@@ -47823,16 +47760,16 @@
         <v>21</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47844,13 +47781,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BS194" s="3">
         <v>37334</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47871,16 +47808,16 @@
         <v>532</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47918,19 +47855,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="Q195" s="3">
         <v>30007</v>
@@ -48008,16 +47945,16 @@
         <v>21</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -48029,13 +47966,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BS195" s="3">
         <v>37904</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -48044,7 +47981,7 @@
         <v>0</v>
       </c>
       <c r="BZ195" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="CA195" s="1" t="s">
         <v>124</v>
@@ -48056,16 +47993,16 @@
         <v>1020</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -48085,7 +48022,7 @@
         <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>112</v>
@@ -48103,19 +48040,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="Q196" s="3">
         <v>26221</v>
@@ -48193,13 +48130,13 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48211,13 +48148,13 @@
         <v>119</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BS196" s="3">
         <v>36111</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48226,7 +48163,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>124</v>
@@ -48235,16 +48172,16 @@
         <v>112</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>130</v>
@@ -48285,19 +48222,19 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="Q197" s="3">
         <v>27571</v>
@@ -48375,16 +48312,16 @@
         <v>21</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48396,13 +48333,13 @@
         <v>119</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="BS197" s="3">
         <v>37785</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48420,19 +48357,19 @@
         <v>112</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2769</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2770</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -48446,10 +48383,10 @@
         <v>88</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>154</v>
@@ -48464,16 +48401,16 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48551,7 +48488,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48566,7 +48503,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48575,7 +48512,7 @@
         <v>112</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="CG198" s="1" t="s">
         <v>130</v>
@@ -48619,19 +48556,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="Q199" s="3">
         <v>30993</v>
@@ -48706,7 +48643,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BB199" s="1">
         <v>12</v>
@@ -48715,13 +48652,13 @@
         <v>21</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>888</v>
@@ -48733,7 +48670,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48751,16 +48688,16 @@
         <v>112</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>893</v>
@@ -48801,19 +48738,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="Q200" s="3">
         <v>30065</v>
@@ -48888,7 +48825,7 @@
         <v>112</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BB200" s="1">
         <v>12</v>
@@ -48897,13 +48834,13 @@
         <v>21</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>1205</v>
@@ -48915,7 +48852,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48933,16 +48870,16 @@
         <v>112</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>1211</v>
@@ -48983,19 +48920,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="Q201" s="3">
         <v>30033</v>
@@ -49070,7 +49007,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BB201" s="1">
         <v>12</v>
@@ -49079,13 +49016,13 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>888</v>
@@ -49097,7 +49034,7 @@
         <v>106</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -49118,13 +49055,13 @@
         <v>1194</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2808</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>893</v>
@@ -49165,19 +49102,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="Q202" s="3">
         <v>29411</v>
@@ -49252,7 +49189,7 @@
         <v>112</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BB202" s="1">
         <v>12</v>
@@ -49261,13 +49198,13 @@
         <v>21</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1205</v>
@@ -49285,13 +49222,13 @@
         <v>168</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BS202" s="3">
         <v>37513</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49309,16 +49246,16 @@
         <v>112</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1211</v>
@@ -49359,19 +49296,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2822</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2823</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="Q203" s="3">
         <v>32173</v>
@@ -49449,16 +49386,16 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49470,13 +49407,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BS203" s="3">
         <v>41024</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49494,19 +49431,19 @@
         <v>112</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>130</v>
@@ -49544,10 +49481,10 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49577,7 +49514,7 @@
         <v>107</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="AH204" s="1" t="s">
         <v>2049</v>
@@ -49622,7 +49559,7 @@
         <v>112</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49631,7 +49568,7 @@
         <v>21</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49658,7 +49595,7 @@
         <v>112</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="CG204" s="1" t="s">
         <v>1964</v>
@@ -49702,19 +49639,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2839</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="Q205" s="3">
         <v>30408</v>
@@ -49786,7 +49723,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="BB205" s="1">
         <v>12</v>
@@ -49795,13 +49732,13 @@
         <v>21</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>782</v>
@@ -49816,13 +49753,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="BS205" s="3">
         <v>37336</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49840,16 +49777,16 @@
         <v>112</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2850</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>788</v>
@@ -49890,19 +49827,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2853</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2854</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="Q206" s="3">
         <v>28132</v>
@@ -49977,7 +49914,7 @@
         <v>112</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="BB206" s="1">
         <v>12</v>
@@ -49986,16 +49923,16 @@
         <v>21</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2858</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2859</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -50004,7 +49941,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -50022,19 +49959,19 @@
         <v>112</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="CG206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -50072,19 +50009,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2866</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2868</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="Q207" s="3">
         <v>31743</v>
@@ -50168,13 +50105,13 @@
         <v>21</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -50183,7 +50120,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50201,16 +50138,16 @@
         <v>112</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>130</v>
@@ -50251,19 +50188,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2878</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="Q208" s="3">
         <v>23750</v>
@@ -50292,12 +50229,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -50347,7 +50279,7 @@
         <v>112</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BB208" s="1">
         <v>12</v>
@@ -50356,16 +50288,16 @@
         <v>21</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50374,7 +50306,7 @@
         <v>106</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50386,7 +50318,7 @@
         <v>111</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>124</v>
@@ -50398,16 +50330,16 @@
         <v>1247</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2889</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2891</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -50445,10 +50377,10 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -50475,7 +50407,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>391</v>
@@ -50529,10 +50461,10 @@
         <v>112</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -50543,13 +50475,13 @@
         <v>88</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>2556</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>112</v>
@@ -50561,16 +50493,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50597,7 +50529,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>391</v>
@@ -50642,7 +50574,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50651,10 +50583,10 @@
         <v>112</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -50689,10 +50621,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50719,7 +50651,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>391</v>
@@ -50773,10 +50705,10 @@
         <v>112</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50793,7 +50725,7 @@
         <v>131</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50805,16 +50737,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50886,7 +50818,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -50895,10 +50827,10 @@
         <v>112</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50933,10 +50865,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -51017,10 +50949,10 @@
         <v>112</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -51037,7 +50969,7 @@
         <v>131</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -51049,16 +50981,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -51130,7 +51062,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51139,10 +51071,10 @@
         <v>112</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51177,10 +51109,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>111</v>
@@ -51261,10 +51193,10 @@
         <v>112</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51299,19 +51231,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2916</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="Q216" s="3">
         <v>26043</v>
@@ -51337,12 +51269,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51395,13 +51322,13 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>395</v>
@@ -51416,13 +51343,13 @@
         <v>102</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="BS216" s="3">
         <v>36306</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51440,16 +51367,16 @@
         <v>112</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2923</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2925</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>403</v>
@@ -51490,19 +51417,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2926</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2928</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="Q217" s="3">
         <v>29945</v>
@@ -51528,12 +51455,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51589,13 +51511,13 @@
         <v>21</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>888</v>
@@ -51607,7 +51529,7 @@
         <v>106</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51625,16 +51547,16 @@
         <v>112</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>893</v>
@@ -51675,19 +51597,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2938</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="Q218" s="3">
         <v>29034</v>
@@ -51716,12 +51638,7 @@
       <c r="AB218" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51774,13 +51691,13 @@
         <v>21</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>395</v>
@@ -51795,13 +51712,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BS218" s="3">
         <v>38234</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51819,16 +51736,16 @@
         <v>112</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>403</v>
@@ -51869,19 +51786,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2947</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2949</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="Q219" s="3">
         <v>29062</v>
@@ -51907,12 +51824,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51968,16 +51880,16 @@
         <v>21</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -51986,7 +51898,7 @@
         <v>106</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -52004,19 +51916,19 @@
         <v>112</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2955</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2956</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CH219" s="1" t="s">
         <v>2957</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2959</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>130</v>
@@ -52054,19 +51966,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2960</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2962</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="Q220" s="3">
         <v>29181</v>
@@ -52092,12 +52004,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -52150,16 +52057,16 @@
         <v>21</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="BI220" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>118</v>
@@ -52171,13 +52078,13 @@
         <v>240</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="BS220" s="3">
         <v>37069</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52198,16 +52105,16 @@
         <v>799</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2969</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2970</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2972</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -52245,19 +52152,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2975</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="Q221" s="3">
         <v>30033</v>
@@ -52283,12 +52190,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -52344,16 +52246,16 @@
         <v>21</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>118</v>
@@ -52362,7 +52264,7 @@
         <v>106</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52380,19 +52282,19 @@
         <v>112</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2980</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2981</v>
       </c>
-      <c r="CE221" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2983</v>
-      </c>
       <c r="CH221" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -52430,19 +52332,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2984</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="Q222" s="3">
         <v>26843</v>
@@ -52468,12 +52370,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2988</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>107</v>
       </c>
@@ -52520,7 +52417,7 @@
         <v>112</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BB222" s="1">
         <v>12</v>
@@ -52529,16 +52426,16 @@
         <v>21</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>118</v>
@@ -52550,13 +52447,13 @@
         <v>240</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BS222" s="3">
         <v>35125</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52574,19 +52471,19 @@
         <v>112</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CG222" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>130</v>
@@ -52624,19 +52521,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="Q223" s="3">
         <v>25903</v>
@@ -52720,19 +52617,19 @@
         <v>21</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52750,16 +52647,16 @@
         <v>112</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>3006</v>
-      </c>
-      <c r="CD223" s="1" t="s">
-        <v>3007</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>3008</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>3009</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>130</v>
@@ -52800,19 +52697,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="Q224" s="3">
         <v>28577</v>
@@ -52893,16 +52790,16 @@
         <v>21</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52911,7 +52808,7 @@
         <v>106</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52932,16 +52829,16 @@
         <v>346</v>
       </c>
       <c r="CD224" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="CE224" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="CG224" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="CH224" s="1" t="s">
         <v>3018</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>3020</v>
-      </c>
-      <c r="CH224" s="1" t="s">
-        <v>3021</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52979,19 +52876,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="Q225" s="3">
         <v>23039</v>
@@ -53072,13 +52969,13 @@
         <v>21</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>468</v>
@@ -53093,13 +52990,13 @@
         <v>240</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BS225" s="3">
         <v>34307</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -53117,16 +53014,16 @@
         <v>112</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>439</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>475</v>
@@ -53167,19 +53064,19 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="Q226" s="3">
         <v>31561</v>
@@ -53263,13 +53160,13 @@
         <v>21</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -53278,7 +53175,7 @@
         <v>106</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53308,10 +53205,10 @@
         <v>1315</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>130</v>
@@ -53352,19 +53249,19 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="Q227" s="3">
         <v>32847</v>
@@ -53448,13 +53345,13 @@
         <v>21</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BG227" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53469,13 +53366,13 @@
         <v>168</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BS227" s="3">
         <v>5347</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53499,16 +53396,16 @@
         <v>112</v>
       </c>
       <c r="CC227" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CD227" s="1" t="s">
         <v>471</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53549,19 +53446,19 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="Q228" s="3">
         <v>29297</v>
@@ -53642,13 +53539,13 @@
         <v>21</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BG228" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53657,13 +53554,13 @@
         <v>240</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BS228" s="3">
         <v>5480</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53690,13 +53587,13 @@
         <v>487</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53737,10 +53634,10 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
@@ -53770,10 +53667,10 @@
         <v>107</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="AH229" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="AJ229" s="1" t="s">
         <v>110</v>
@@ -53821,7 +53718,7 @@
         <v>21</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53851,7 +53748,7 @@
         <v>92</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CG229" s="1" t="s">
         <v>130</v>
@@ -53895,10 +53792,10 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -53928,10 +53825,10 @@
         <v>107</v>
       </c>
       <c r="AG230" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="AH230" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="AJ230" s="1" t="s">
         <v>110</v>
@@ -53979,7 +53876,7 @@
         <v>21</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53997,7 +53894,7 @@
         <v>111</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>124</v>
@@ -54006,7 +53903,7 @@
         <v>92</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CG230" s="1" t="s">
         <v>130</v>
@@ -54053,10 +53950,10 @@
         <v>266</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>268</v>
@@ -54089,7 +53986,7 @@
         <v>42582</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -54146,13 +54043,13 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BI231" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -54197,7 +54094,7 @@
         <v>280</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>831</v>
@@ -54220,7 +54117,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -54232,22 +54129,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="Q232" s="3">
         <v>17060</v>
@@ -54283,13 +54180,13 @@
         <v>42628</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>140</v>
@@ -54334,22 +54231,22 @@
         <v>112</v>
       </c>
       <c r="AZ232" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="BB232" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC232" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD232" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="BH232" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="BI232" s="1" t="s">
         <v>3085</v>
-      </c>
-      <c r="BB232" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC232" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD232" s="1" t="s">
-        <v>3086</v>
-      </c>
-      <c r="BH232" s="1" t="s">
-        <v>3087</v>
-      </c>
-      <c r="BI232" s="1" t="s">
-        <v>3088</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54358,7 +54255,7 @@
         <v>106</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54367,7 +54264,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -54382,13 +54279,13 @@
         <v>126</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -54402,13 +54299,13 @@
         <v>88</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>112</v>
@@ -54420,22 +54317,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="Q233" s="3">
         <v>26864</v>
@@ -54468,7 +54365,7 @@
         <v>42735</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -54522,10 +54419,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54537,13 +54434,13 @@
         <v>240</v>
       </c>
       <c r="BR233" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BS233" s="3">
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54555,7 +54452,7 @@
         <v>111</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54564,16 +54461,16 @@
         <v>112</v>
       </c>
       <c r="CC233" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="CD233" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="CE233" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="CG233" s="1" t="s">
         <v>3104</v>
-      </c>
-      <c r="CD233" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>3106</v>
-      </c>
-      <c r="CG233" s="1" t="s">
-        <v>3107</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54614,16 +54511,16 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="Q234" s="3">
         <v>25379</v>
@@ -54656,7 +54553,7 @@
         <v>39800</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>253</v>
@@ -54710,10 +54607,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54725,13 +54622,13 @@
         <v>1759</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BS234" s="3">
         <v>35915</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54761,10 +54658,10 @@
         <v>676</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54787,7 +54684,7 @@
         <v>131</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>112</v>
@@ -54799,22 +54696,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="Q235" s="3">
         <v>17470</v>
@@ -54844,7 +54741,7 @@
         <v>43100</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
@@ -54901,10 +54798,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54913,7 +54810,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54937,16 +54834,16 @@
         <v>112</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54969,7 +54866,7 @@
         <v>131</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>112</v>
@@ -54981,22 +54878,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="Q236" s="3">
         <v>23356</v>
@@ -55026,7 +54923,7 @@
         <v>43105</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -55080,10 +54977,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -55095,13 +54992,13 @@
         <v>102</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BS236" s="3">
         <v>34412</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55110,7 +55007,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>124</v>
@@ -55119,16 +55016,16 @@
         <v>112</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>2440</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -55145,13 +55042,13 @@
         <v>88</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>2556</v>
-      </c>
       <c r="E237" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>92</v>
@@ -55163,22 +55060,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="Q237" s="3">
         <v>17726</v>
@@ -55214,7 +55111,7 @@
         <v>43312</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>253</v>
@@ -55265,7 +55162,7 @@
         <v>112</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BB237" s="1">
         <v>0</v>
@@ -55274,10 +55171,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55286,7 +55183,7 @@
         <v>106</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55295,7 +55192,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>124</v>
@@ -55304,16 +55201,16 @@
         <v>112</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="CE237" s="1" t="s">
         <v>948</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -55336,7 +55233,7 @@
         <v>131</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>92</v>
@@ -55348,22 +55245,22 @@
         <v>94</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="Q238" s="3">
         <v>17041</v>
@@ -55393,7 +55290,7 @@
         <v>42735</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>107</v>
@@ -55450,7 +55347,7 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
@@ -55459,7 +55356,7 @@
         <v>106</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55471,7 +55368,7 @@
         <v>111</v>
       </c>
       <c r="BZ238" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CA238" s="1" t="s">
         <v>124</v>
@@ -55480,13 +55377,13 @@
         <v>112</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CG238" s="1" t="s">
         <v>130</v>
@@ -55506,13 +55403,13 @@
         <v>88</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>2556</v>
-      </c>
       <c r="E239" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>112</v>
@@ -55524,22 +55421,22 @@
         <v>94</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="Q239" s="3">
         <v>30147</v>
@@ -55565,17 +55462,12 @@
       <c r="AA239" s="1">
         <v>0</v>
       </c>
-      <c r="AC239" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD239" s="1" t="s">
-        <v>2881</v>
-      </c>
+      <c r="AC239" s="3"/>
       <c r="AF239" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>391</v>
@@ -55623,10 +55515,10 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
@@ -55638,13 +55530,13 @@
         <v>102</v>
       </c>
       <c r="BR239" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BS239" s="3">
         <v>37124</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55653,7 +55545,7 @@
         <v>0</v>
       </c>
       <c r="BZ239" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CA239" s="1" t="s">
         <v>124</v>
@@ -55662,16 +55554,16 @@
         <v>112</v>
       </c>
       <c r="CC239" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="CD239" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55712,16 +55604,16 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="L240" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="M240" s="1" t="s">
         <v>3069</v>
       </c>
-      <c r="M240" s="1" t="s">
-        <v>3072</v>
-      </c>
       <c r="N240" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="Q240" s="3">
         <v>17821</v>
@@ -55760,7 +55652,7 @@
         <v>43388</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>107</v>
@@ -55811,25 +55703,25 @@
         <v>112</v>
       </c>
       <c r="AZ240" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="BB240" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC240" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD240" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="BE240" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="BF240" s="1" t="s">
         <v>3173</v>
       </c>
-      <c r="BB240" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC240" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD240" s="1" t="s">
+      <c r="BH240" s="1" t="s">
         <v>3174</v>
-      </c>
-      <c r="BE240" s="1" t="s">
-        <v>3175</v>
-      </c>
-      <c r="BF240" s="1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="BH240" s="1" t="s">
-        <v>3177</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
@@ -55838,7 +55730,7 @@
         <v>106</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55856,16 +55748,16 @@
         <v>112</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="CE240" s="1" t="s">
         <v>518</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55906,16 +55798,16 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55951,7 +55843,7 @@
         <v>43980</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
@@ -56005,10 +55897,10 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
@@ -56020,13 +55912,13 @@
         <v>1759</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BS241" s="3">
         <v>35915</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -56050,7 +55942,7 @@
         <v>676</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CG241" s="1" t="s">
         <v>1964</v>
@@ -56070,10 +55962,10 @@
         <v>88</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>154</v>
@@ -56088,22 +55980,22 @@
         <v>94</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -56139,7 +56031,7 @@
         <v>44135</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
@@ -56196,10 +56088,10 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
@@ -56208,7 +56100,7 @@
         <v>106</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56217,7 +56109,7 @@
         <v>0</v>
       </c>
       <c r="BZ242" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="CA242" s="1" t="s">
         <v>124</v>
@@ -56229,10 +56121,10 @@
         <v>1349</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="CG242" s="1" t="s">
         <v>1964</v>
@@ -56276,16 +56168,16 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -56321,13 +56213,13 @@
         <v>43847</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>2049</v>
@@ -56372,7 +56264,7 @@
         <v>112</v>
       </c>
       <c r="AZ243" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BB243" s="1">
         <v>2</v>
@@ -56381,10 +56273,10 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
@@ -56396,13 +56288,13 @@
         <v>119</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BS243" s="3">
         <v>34808</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56420,13 +56312,13 @@
         <v>112</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CG243" s="1" t="s">
         <v>1964</v>
@@ -56443,10 +56335,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1323</v>
@@ -56470,16 +56362,16 @@
         <v>154</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56536,7 +56428,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56566,7 +56458,7 @@
         <v>112</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BB244" s="1">
         <v>2</v>
@@ -56575,13 +56467,13 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56599,13 +56491,13 @@
         <v>112</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="CG244" s="1" t="s">
         <v>130</v>
@@ -56649,16 +56541,16 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -56697,7 +56589,7 @@
         <v>44246</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -56754,10 +56646,10 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
@@ -56766,7 +56658,7 @@
         <v>106</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56790,13 +56682,13 @@
         <v>112</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>147</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="CG245" s="1" t="s">
         <v>130</v>
@@ -56840,16 +56732,16 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56888,7 +56780,7 @@
         <v>44267</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -56945,10 +56837,10 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
@@ -56960,13 +56852,13 @@
         <v>119</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BS246" s="3">
         <v>35711</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56990,7 +56882,7 @@
         <v>400</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="CG246" s="1" t="s">
         <v>130</v>
@@ -57034,16 +56926,16 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -57079,16 +56971,16 @@
         <v>44255</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="AH247" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="AJ247" s="1" t="s">
         <v>110</v>
@@ -57136,10 +57028,10 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
@@ -57148,13 +57040,13 @@
         <v>240</v>
       </c>
       <c r="BR247" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BS247" s="3">
         <v>2302</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -57178,13 +57070,13 @@
         <v>92</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CG247" s="1" t="s">
         <v>130</v>
@@ -57228,16 +57120,16 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57270,7 +57162,7 @@
         <v>44316</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
@@ -57327,10 +57219,10 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
@@ -57342,13 +57234,13 @@
         <v>240</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BS248" s="3">
         <v>35108</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57366,16 +57258,16 @@
         <v>112</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>2066</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57416,16 +57308,16 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -57461,16 +57353,16 @@
         <v>44507</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG249" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="AH249" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="AI249" s="1" t="s">
         <v>112</v>
@@ -57521,16 +57413,16 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57545,7 +57437,7 @@
         <v>111</v>
       </c>
       <c r="BZ249" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="CA249" s="1" t="s">
         <v>124</v>
@@ -57554,13 +57446,13 @@
         <v>92</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="CG249" s="1" t="s">
         <v>130</v>
@@ -57577,10 +57469,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1323</v>
@@ -57595,7 +57487,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1323</v>
@@ -57604,19 +57496,19 @@
         <v>154</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="Q250" s="3">
         <v>20466</v>
@@ -57664,7 +57556,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57697,19 +57589,19 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57727,16 +57619,16 @@
         <v>112</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CD250" s="1" t="s">
         <v>326</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57750,10 +57642,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1323</v>
@@ -57768,7 +57660,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1323</v>
@@ -57777,19 +57669,19 @@
         <v>154</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="Q251" s="3">
         <v>24006</v>
@@ -57834,7 +57726,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57870,19 +57762,19 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57909,10 +57801,10 @@
         <v>1140</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57926,10 +57818,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1323</v>
@@ -57944,7 +57836,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1323</v>
@@ -57953,19 +57845,19 @@
         <v>154</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="Q252" s="3">
         <v>26193</v>
@@ -58010,7 +57902,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -58046,19 +57938,19 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -58079,16 +57971,16 @@
         <v>112</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3294</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3297</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -58102,10 +57994,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1323</v>
@@ -58120,7 +58012,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1323</v>
@@ -58129,19 +58021,19 @@
         <v>154</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="Q253" s="3">
         <v>24325</v>
@@ -58222,19 +58114,19 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -58255,7 +58147,7 @@
         <v>112</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>618</v>
@@ -58264,7 +58156,7 @@
         <v>518</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -58278,10 +58170,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1323</v>
@@ -58296,7 +58188,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1323</v>
@@ -58305,19 +58197,19 @@
         <v>154</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="Q254" s="3">
         <v>24848</v>
@@ -58365,7 +58257,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58401,19 +58293,19 @@
         <v>21</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -58437,13 +58329,13 @@
         <v>501</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58457,10 +58349,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1323</v>
@@ -58475,7 +58367,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1323</v>
@@ -58484,19 +58376,19 @@
         <v>154</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="Q255" s="3">
         <v>27702</v>
@@ -58577,19 +58469,19 @@
         <v>21</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58610,16 +58502,16 @@
         <v>112</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>633</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58633,10 +58525,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1323</v>
@@ -58651,7 +58543,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1323</v>
@@ -58660,19 +58552,19 @@
         <v>154</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="Q256" s="3">
         <v>23289</v>
@@ -58720,7 +58612,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58756,19 +58648,19 @@
         <v>21</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58789,16 +58681,16 @@
         <v>112</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>1063</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58812,10 +58704,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1323</v>
@@ -58830,7 +58722,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1323</v>
@@ -58839,19 +58731,19 @@
         <v>154</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="Q257" s="3">
         <v>16546</v>
@@ -58899,7 +58791,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="AO257" s="1">
         <v>0</v>
@@ -58935,19 +58827,19 @@
         <v>21</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58971,13 +58863,13 @@
         <v>1048</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58991,10 +58883,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1323</v>
@@ -59009,7 +58901,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1323</v>
@@ -59018,10 +58910,10 @@
         <v>154</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -59063,7 +58955,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -59099,7 +58991,7 @@
         <v>21</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -59123,7 +59015,7 @@
         <v>112</v>
       </c>
       <c r="CC258" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="CG258" s="1" t="s">
         <v>130</v>
@@ -59140,10 +59032,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1323</v>
@@ -59158,7 +59050,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1323</v>
@@ -59167,19 +59059,19 @@
         <v>154</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>2377</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="Q259" s="3">
         <v>23611</v>
@@ -59224,7 +59116,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -59257,19 +59149,19 @@
         <v>21</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59287,16 +59179,16 @@
         <v>112</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3359</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3360</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3361</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3362</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59310,10 +59202,10 @@
         <v>87</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1323</v>
@@ -59328,7 +59220,7 @@
         <v>93</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>1323</v>
@@ -59337,13 +59229,13 @@
         <v>154</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -59427,19 +59319,19 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59460,16 +59352,16 @@
         <v>2312</v>
       </c>
       <c r="CC260" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="CD260" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="CE260" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="CG260" s="1" t="s">
         <v>3368</v>
-      </c>
-      <c r="CD260" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="CE260" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="CG260" s="1" t="s">
-        <v>3371</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59483,10 +59375,10 @@
         <v>87</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1323</v>
@@ -59501,7 +59393,7 @@
         <v>93</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1323</v>
@@ -59510,19 +59402,19 @@
         <v>154</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="Q261" s="3">
         <v>26349</v>
@@ -59567,7 +59459,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -59603,19 +59495,19 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59636,16 +59528,16 @@
         <v>112</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59659,10 +59551,10 @@
         <v>87</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1323</v>
@@ -59677,7 +59569,7 @@
         <v>93</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1323</v>
@@ -59686,19 +59578,19 @@
         <v>154</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="Q262" s="3">
         <v>30589</v>
@@ -59746,7 +59638,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -59782,19 +59674,19 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59815,16 +59707,16 @@
         <v>112</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="CG262" s="1" t="s">
         <v>3390</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>3392</v>
-      </c>
-      <c r="CG262" s="1" t="s">
-        <v>3393</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59838,10 +59730,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1323</v>
@@ -59856,7 +59748,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1323</v>
@@ -59865,19 +59757,19 @@
         <v>154</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="Q263" s="3">
         <v>27354</v>
@@ -59925,7 +59817,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59961,19 +59853,19 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59994,16 +59886,16 @@
         <v>112</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3401</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3402</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3404</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -60017,10 +59909,10 @@
         <v>87</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1323</v>
@@ -60035,7 +59927,7 @@
         <v>93</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1323</v>
@@ -60044,19 +59936,19 @@
         <v>154</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="Q264" s="3">
         <v>13756</v>
@@ -60143,7 +60035,7 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
@@ -60170,10 +60062,10 @@
         <v>112</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>226</v>
@@ -60193,10 +60085,10 @@
         <v>87</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1323</v>
@@ -60211,7 +60103,7 @@
         <v>93</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1323</v>
@@ -60220,19 +60112,19 @@
         <v>154</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="Q265" s="3">
         <v>26074</v>
@@ -60280,7 +60172,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -60316,25 +60208,25 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW265" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="BX265" s="1">
         <v>0</v>
@@ -60352,16 +60244,16 @@
         <v>112</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>1332</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -60375,10 +60267,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1323</v>
@@ -60393,7 +60285,7 @@
         <v>93</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1323</v>
@@ -60402,19 +60294,19 @@
         <v>154</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P266" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="Q266" s="3">
         <v>28808</v>
@@ -60459,7 +60351,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -60495,19 +60387,19 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -60528,16 +60420,16 @@
         <v>112</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -60551,10 +60443,10 @@
         <v>87</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1323</v>
@@ -60569,7 +60461,7 @@
         <v>93</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1323</v>
@@ -60578,19 +60470,19 @@
         <v>154</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="R267" s="1" t="s">
         <v>138</v>
@@ -60614,7 +60506,7 @@
         <v>107</v>
       </c>
       <c r="AG267" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="AH267" s="1" t="s">
         <v>391</v>
@@ -60629,7 +60521,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -60659,19 +60551,19 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -60689,16 +60581,16 @@
         <v>112</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>326</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -60712,10 +60604,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1323</v>
@@ -60730,7 +60622,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1323</v>
@@ -60739,19 +60631,19 @@
         <v>154</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="R268" s="1" t="s">
         <v>138</v>
@@ -60829,19 +60721,19 @@
         <v>21</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60859,16 +60751,16 @@
         <v>112</v>
       </c>
       <c r="CC268" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="CD268" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="CG268" s="1" t="s">
         <v>3449</v>
-      </c>
-      <c r="CD268" s="1" t="s">
-        <v>3450</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3451</v>
-      </c>
-      <c r="CG268" s="1" t="s">
-        <v>3452</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60882,10 +60774,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1323</v>
@@ -60900,7 +60792,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1323</v>
@@ -60909,19 +60801,19 @@
         <v>154</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P269" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="Q269" s="3">
         <v>29466</v>
@@ -61002,19 +60894,19 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -61032,16 +60924,16 @@
         <v>112</v>
       </c>
       <c r="CC269" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="CE269" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="CG269" s="1" t="s">
         <v>3460</v>
-      </c>
-      <c r="CD269" s="1" t="s">
-        <v>3461</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>3462</v>
-      </c>
-      <c r="CG269" s="1" t="s">
-        <v>3463</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -61055,10 +60947,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1323</v>
@@ -61073,7 +60965,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1323</v>
@@ -61082,22 +60974,22 @@
         <v>154</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="Q270" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="R270" s="1" t="s">
         <v>138</v>
@@ -61139,7 +61031,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -61172,19 +61064,19 @@
         <v>21</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -61202,16 +61094,16 @@
         <v>112</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="CD270" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="CG270" s="1" t="s">
         <v>3472</v>
-      </c>
-      <c r="CD270" s="1" t="s">
-        <v>3473</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3474</v>
-      </c>
-      <c r="CG270" s="1" t="s">
-        <v>3475</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -61252,13 +61144,13 @@
         <v>96</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="L271" s="1" t="s">
         <v>332</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -61351,13 +61243,13 @@
         <v>21</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
@@ -61366,13 +61258,13 @@
         <v>240</v>
       </c>
       <c r="BR271" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BS271" s="3">
         <v>35108</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -61390,16 +61282,16 @@
         <v>112</v>
       </c>
       <c r="CC271" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="CD271" s="1" t="s">
         <v>2066</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -61440,13 +61332,13 @@
         <v>96</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -61539,19 +61431,19 @@
         <v>21</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -61572,13 +61464,13 @@
         <v>346</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CG272" s="1" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -61619,13 +61511,13 @@
         <v>96</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -61721,19 +61613,19 @@
         <v>21</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -61760,10 +61652,10 @@
         <v>1315</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61804,16 +61696,16 @@
         <v>96</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -61903,13 +61795,13 @@
         <v>21</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
@@ -61918,13 +61810,13 @@
         <v>1759</v>
       </c>
       <c r="BR274" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="BS274" s="3">
         <v>5347</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -61945,16 +61837,16 @@
         <v>112</v>
       </c>
       <c r="CC274" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CD274" s="1" t="s">
         <v>471</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61964,6 +61856,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI274" xr:uid="{45670DC1-2CFF-436F-9FEF-CC6AB00591C7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>